--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -1,76 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhw/Desktop/Django Projekte/scooter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B500BA1-C765-B84C-925A-DCC3D4C1FEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="-3400" windowWidth="25440" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30780" yWindow="-3400" windowWidth="25440" windowHeight="15020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Zeit</t>
-  </si>
-  <si>
-    <t>Grund1</t>
-  </si>
-  <si>
-    <t>Time per Use</t>
-  </si>
-  <si>
-    <t>Uses per Day</t>
-  </si>
-  <si>
-    <t>Anzahl Tage</t>
-  </si>
-  <si>
-    <t>Grund2</t>
-  </si>
-  <si>
-    <t>Time per Use2</t>
-  </si>
-  <si>
-    <t>Uses per Day2</t>
-  </si>
-  <si>
-    <t>Anzahl Tage2</t>
-  </si>
-  <si>
-    <t>Kosten</t>
-  </si>
-  <si>
-    <t>Anbieter</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,22 +47,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,56 +422,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col width="17.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.83203125" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Zeit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Grund1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time per Use</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Uses per Day</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Anzahl Tage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Grund2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Time per Use2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Uses per Day2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Anzahl Tage2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Kosten</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Anbieter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44397.22588581018</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44397.36153704936</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44397.36153704936</v>
+        <v>44397.36153704861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -574,6 +574,88 @@
         <v>4.09</v>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44397.53371414352</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44397.53526291558</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -1,35 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhw/Desktop/Django Projekte/scooter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F32B4E-78D0-6E44-8B1D-C5A6BE0CA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30780" yWindow="-3400" windowWidth="25440" windowHeight="15020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Grund1</t>
+  </si>
+  <si>
+    <t>Time per Use</t>
+  </si>
+  <si>
+    <t>Uses per Day</t>
+  </si>
+  <si>
+    <t>Anzahl Tage</t>
+  </si>
+  <si>
+    <t>Grund2</t>
+  </si>
+  <si>
+    <t>Time per Use2</t>
+  </si>
+  <si>
+    <t>Uses per Day2</t>
+  </si>
+  <si>
+    <t>Anzahl Tage2</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Anbieter</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>Tier Summer Pass</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,81 +101,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,246 +416,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.83203125" customWidth="1" min="3" max="3"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Zeit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Grund1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time per Use</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Uses per Day</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Anzahl Tage</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Grund2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Time per Use2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Uses per Day2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Anzahl Tage2</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Kosten</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Anbieter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44397.22588581018</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nothing</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44397.225885810178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>4.09</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Tier Summer Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44397.36153704861</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nothing</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44397.361537048608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>4.09</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Tier Summer Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44397.53371414352</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nothing</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44397.533714143523</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>4.09</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Tier Summer Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44397.53526291558</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nothing</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44397.535262916666</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>4.09</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Tier Summer Pass</t>
-        </is>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44397.540355405094</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.09</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44397.589457662027</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.09</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44397.59039409722</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.09</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44397.596187553972</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.09</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44406.84470491335</v>
+        <v>44406.84470491898</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1316,6 +1316,88 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>Tier Normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44406.86565259259</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44406.86706346546</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
         </is>
       </c>
     </row>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44406.86706346546</v>
+        <v>44406.86706346065</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1396,6 +1396,47 @@
         <v>4.85</v>
       </c>
       <c r="K23" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44407.37716499</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44407.37716499</v>
+        <v>44407.37716498843</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1437,6 +1437,88 @@
         <v>4.09</v>
       </c>
       <c r="K24" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44407.59585532407</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sports2</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Test test</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44407.59721580576</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44407.59721580576</v>
+        <v>44407.59721581019</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1521,6 +1521,744 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44412.4481962037</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>dagmars tarif</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44412.44928313657</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>work2</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>dagmars tarif</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44412.45029494213</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44412.45157104167</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>39</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44412.45262265046</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sports2</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>45</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>39</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44412.45344746528</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>work2</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>48</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>39</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44412.45414399305</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>friends2</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>49</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>39</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44412.45486195602</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sports2</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>39</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44412.45567313657</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>51</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>39</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44412.45629307871</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>friends2</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>51</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>39</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44412.45682138889</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>work2</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>52</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>39</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44412.45738362268</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>friends2</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>52</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>39</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44412.45838732639</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44412.45843853009</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44412.45941576389</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44412.45956989584</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44412.46070188657</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>45</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44412.46355849117</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>44</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>44</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>39</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
         </is>
       </c>
     </row>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44412.46355849117</v>
+        <v>44412.46355849537</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2259,6 +2259,867 @@
       <c r="K44" t="inlineStr">
         <is>
           <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44412.70229570602</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44412.70319050926</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44412.70402737268</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44412.70461599537</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44412.70507769676</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44412.70542390046</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>39</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44412.70572538194</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>39</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44412.70613754629</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>39</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44412.70646207176</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>39</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44412.70710585648</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>39</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44412.7077499537</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>39</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44412.70810019676</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>39</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44412.7085365625</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>50</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44412.70905372685</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>39</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44412.70933363426</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>50</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>39</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44412.7096533912</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>39</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44412.7101140162</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>50</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>50</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>39</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44412.71057212963</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>50</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>50</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>39</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Lime Flatrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44412.71541232639</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44412.71594060185</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44413.66088413158</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
         </is>
       </c>
     </row>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44413.66088413158</v>
+        <v>44413.66088413195</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3118,6 +3118,170 @@
         <v>4.09</v>
       </c>
       <c r="K65" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44413.69020792824</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44413.69056190972</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44413.6907022801</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44413.69080956457</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44413.69080956457</v>
+        <v>44413.69080956018</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3282,6 +3282,47 @@
         <v>4.09</v>
       </c>
       <c r="K69" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44414.39481285757</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44414.39481285757</v>
+        <v>44414.39481285879</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3323,6 +3323,47 @@
         <v>4.09</v>
       </c>
       <c r="K70" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44416.82094497623</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44416.82094497623</v>
+        <v>44416.82094497685</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3364,6 +3364,47 @@
         <v>4.09</v>
       </c>
       <c r="K71" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44417.73161138634</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44417.73161138634</v>
+        <v>44417.73161138889</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3405,6 +3405,211 @@
         <v>4.09</v>
       </c>
       <c r="K72" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44418.70085876157</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44418.7061237963</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44418.70647008102</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44418.70693501157</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44418.70710128533</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
         </is>

--- a/log_out.xlsx
+++ b/log_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44418.70710128533</v>
+        <v>44418.70710128472</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3612,6 +3612,375 @@
       <c r="K77" t="inlineStr">
         <is>
           <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44419.5446590162</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44419.54485351852</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>46</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44419.54503457176</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>46</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44419.54754072917</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44419.54794748843</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44419.55129355324</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44419.55141452546</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>46</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44419.55167253472</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>56</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44419.55184044019</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>55</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>other2</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Tier Rider Plus</t>
         </is>
       </c>
     </row>
